--- a/source.xlsx
+++ b/source.xlsx
@@ -35,7 +35,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="true">
       <alignment vertical="top"/>
     </xf>
   </cellXfs>
